--- a/intruso.xlsx
+++ b/intruso.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25616"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_92485C45C1F39E42E268565A893E8C18510380CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC063333-F20A-4E36-9A67-1A4074034EC6}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Disney" sheetId="1" r:id="rId1"/>
-    <sheet name="Panddington" sheetId="2" r:id="rId2"/>
-    <sheet name="Alasca" sheetId="3" r:id="rId3"/>
+    <sheet name="Disney" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Panddington" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Alasca" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -31,256 +24,275 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="78">
   <si>
-    <t>Bob Esponja</t>
+    <t xml:space="preserve">Bob Esponja</t>
   </si>
   <si>
-    <t>Angélica</t>
+    <t xml:space="preserve">Angélica</t>
   </si>
   <si>
-    <t>Zé Colmeia</t>
+    <t xml:space="preserve">Zé Colmeia</t>
   </si>
   <si>
-    <t>Pica-Pau</t>
+    <t xml:space="preserve">Pica-Pau</t>
   </si>
   <si>
-    <t>As Meninas Superpoderosas</t>
+    <t xml:space="preserve">As Meninas Superpoderosas</t>
   </si>
   <si>
-    <t>Wanda</t>
+    <t xml:space="preserve">Wanda</t>
   </si>
   <si>
-    <t>Scooby-Doo</t>
+    <t xml:space="preserve">Scooby-Doo</t>
   </si>
   <si>
-    <t>Bart Simpson</t>
+    <t xml:space="preserve">Bart Simpson</t>
   </si>
   <si>
-    <t>Ursinho Pooh</t>
+    <t xml:space="preserve">Ursinho Pooh</t>
   </si>
   <si>
-    <t>Gumball</t>
+    <t xml:space="preserve">Gumball</t>
   </si>
   <si>
-    <t>Baymax</t>
+    <t xml:space="preserve">Baymax</t>
   </si>
   <si>
-    <t>Tom</t>
+    <t xml:space="preserve">Tom</t>
   </si>
   <si>
-    <t>Pernalonga</t>
+    <t xml:space="preserve">Pernalonga</t>
   </si>
   <si>
-    <t>Ben 10</t>
+    <t xml:space="preserve">Ben 10</t>
   </si>
   <si>
-    <t>Timmy Turner</t>
+    <t xml:space="preserve">Timmy Turner</t>
   </si>
   <si>
-    <t>Betty Boop</t>
+    <t xml:space="preserve">Betty Boop</t>
   </si>
   <si>
-    <t>Steven Universe</t>
+    <t xml:space="preserve">Steven Universe</t>
   </si>
   <si>
-    <t>Jerry</t>
+    <t xml:space="preserve">Jerry</t>
   </si>
   <si>
-    <t>Snoopy</t>
+    <t xml:space="preserve">Snoopy</t>
   </si>
   <si>
-    <t>Irmão do Jorel</t>
+    <t xml:space="preserve">Irmão do Jorel</t>
   </si>
   <si>
-    <t>Bobby</t>
+    <t xml:space="preserve">Bobby</t>
   </si>
   <si>
-    <t>Charlie Brown</t>
+    <t xml:space="preserve">Charlie Brown</t>
   </si>
   <si>
-    <t>Samurai Jack</t>
+    <t xml:space="preserve">Samurai Jack</t>
   </si>
   <si>
-    <t>Lula Molusco</t>
+    <t xml:space="preserve">Lula Molusco</t>
   </si>
   <si>
-    <t>Chase</t>
+    <t xml:space="preserve">Chase</t>
   </si>
   <si>
-    <t>Salsicha</t>
+    <t xml:space="preserve">Salsicha</t>
   </si>
   <si>
-    <t>Coragem</t>
+    <t xml:space="preserve">Coragem</t>
   </si>
   <si>
-    <t>Rainbow Dash</t>
+    <t xml:space="preserve">Rainbow Dash</t>
   </si>
   <si>
-    <t>Garfield</t>
+    <t xml:space="preserve">Garfield</t>
   </si>
   <si>
-    <t>Cosmo</t>
+    <t xml:space="preserve">Cosmo</t>
   </si>
   <si>
-    <t>Popeye</t>
+    <t xml:space="preserve">Popeye</t>
   </si>
   <si>
-    <t>Patolino</t>
+    <t xml:space="preserve">Patolino</t>
   </si>
   <si>
-    <t>Dexter</t>
+    <t xml:space="preserve">Dexter</t>
   </si>
   <si>
-    <t>Piu-Piu</t>
+    <t xml:space="preserve">Piu-Piu</t>
   </si>
   <si>
-    <t>Diabo da Tasmânia</t>
+    <t xml:space="preserve">Diabo da Tasmânia</t>
   </si>
   <si>
-    <t>Pantera Cor-de-Rosa</t>
+    <t xml:space="preserve">Pantera Cor-de-Rosa</t>
   </si>
   <si>
-    <t>Doug Funnie</t>
+    <t xml:space="preserve">Doug Funnie</t>
   </si>
   <si>
-    <t>Patrick Estrela</t>
+    <t xml:space="preserve">Patrick Estrela</t>
   </si>
   <si>
-    <t>Du, Dudu e Edu</t>
+    <t xml:space="preserve">Du, Dudu e Edu</t>
   </si>
   <si>
-    <t>Patti Maionese</t>
+    <t xml:space="preserve">Patti Maionese</t>
   </si>
   <si>
-    <t>Finn - O Humano</t>
+    <t xml:space="preserve">Finn - O Humano</t>
   </si>
   <si>
-    <t>Eric Cartman</t>
+    <t xml:space="preserve">Eric Cartman</t>
   </si>
   <si>
-    <t>Mickey Mouse</t>
+    <t xml:space="preserve">Mickey Mouse</t>
   </si>
   <si>
-    <t>Panda, Pardo e Polar</t>
+    <t xml:space="preserve">Panda, Pardo e Polar</t>
   </si>
   <si>
-    <t>Frajola</t>
+    <t xml:space="preserve">Frajola</t>
   </si>
   <si>
-    <t>Pato Donald</t>
+    <t xml:space="preserve">Pato Donald</t>
   </si>
   <si>
-    <t>Fred Flintstone</t>
+    <t xml:space="preserve">Fred Flintstone</t>
   </si>
   <si>
-    <t>Pateta</t>
+    <t xml:space="preserve">Pateta</t>
   </si>
   <si>
-    <t>Ladybug</t>
+    <t xml:space="preserve">Ladybug</t>
   </si>
   <si>
-    <t>Gaguinho</t>
+    <t xml:space="preserve">Gaguinho</t>
   </si>
   <si>
-    <t>Papa-Léguas</t>
+    <t xml:space="preserve">Papa-Léguas</t>
   </si>
   <si>
-    <t>Gato Félix</t>
+    <t xml:space="preserve">Gato Félix</t>
   </si>
   <si>
-    <t>Moranguinho</t>
+    <t xml:space="preserve">Moranguinho</t>
   </si>
   <si>
-    <t>Homer Simpson</t>
+    <t xml:space="preserve">Homer Simpson</t>
   </si>
   <si>
-    <t>Mestre dos Magos</t>
+    <t xml:space="preserve">Mestre dos Magos</t>
   </si>
   <si>
-    <t>Manda-Chuva</t>
+    <t xml:space="preserve">Manda-Chuva</t>
   </si>
   <si>
-    <t>Jimmy Neutron</t>
+    <t xml:space="preserve">Jimmy Neutron</t>
   </si>
   <si>
-    <t>Johnny Bravo</t>
+    <t xml:space="preserve">Johnny Bravo</t>
   </si>
   <si>
-    <t>Lisa Simpson</t>
+    <t xml:space="preserve">Lisa Simpson</t>
   </si>
   <si>
-    <t>Kim Possible</t>
+    <t xml:space="preserve">Kim Possible</t>
   </si>
   <si>
-    <t>Maicon</t>
+    <t xml:space="preserve">Maicon</t>
   </si>
   <si>
-    <t>Anna</t>
+    <t xml:space="preserve">Anna</t>
   </si>
   <si>
-    <t>Ontem</t>
+    <t xml:space="preserve">Ontem</t>
   </si>
   <si>
-    <t>Rosa</t>
+    <t xml:space="preserve">Rosa</t>
   </si>
   <si>
-    <t>Alfredo</t>
+    <t xml:space="preserve">Alfredo</t>
   </si>
   <si>
-    <t>Beth</t>
+    <t xml:space="preserve">Beth</t>
   </si>
   <si>
-    <t>Alan</t>
+    <t xml:space="preserve">Alan</t>
   </si>
   <si>
-    <t>Daniel</t>
+    <t xml:space="preserve">Daniel</t>
   </si>
   <si>
-    <t>Maria</t>
+    <t xml:space="preserve">Maria</t>
   </si>
   <si>
-    <t>Turing</t>
+    <t xml:space="preserve">Turing</t>
   </si>
   <si>
-    <t>Jeff</t>
+    <t xml:space="preserve">Jeff</t>
   </si>
   <si>
-    <t>U</t>
+    <t xml:space="preserve">U</t>
   </si>
   <si>
-    <t>R</t>
+    <t xml:space="preserve">R</t>
   </si>
   <si>
-    <t>I</t>
+    <t xml:space="preserve">I</t>
   </si>
   <si>
-    <t>N</t>
+    <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t>G</t>
+    <t xml:space="preserve">G</t>
   </si>
   <si>
-    <t>Studio Ghibli</t>
+    <t xml:space="preserve">Ghibli</t>
   </si>
   <si>
-    <t>O conto da Princesa Kaguya</t>
+    <t xml:space="preserve">O conto da Princesa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Liberation Sans"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -293,7 +305,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -301,335 +313,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -711,7 +454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -752,7 +495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -793,7 +536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -834,7 +577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -875,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -916,7 +659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -957,7 +700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -998,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1039,7 +782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1080,7 +823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1121,7 +864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1162,7 +905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1203,7 +946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1244,7 +987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1285,7 +1028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1326,7 +1069,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -1367,7 +1110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1408,7 +1151,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1449,7 +1192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -1490,7 +1233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1531,7 +1274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1572,7 +1315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1613,7 +1356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1654,7 +1397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -1695,7 +1438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1736,7 +1479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -1777,7 +1520,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1818,7 +1561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1859,7 +1602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1900,7 +1643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -1941,7 +1684,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1982,7 +1725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -2023,7 +1766,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -2064,7 +1807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -2105,7 +1848,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -2146,7 +1889,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -2187,7 +1930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -2228,7 +1971,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -2269,7 +2012,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
@@ -2310,7 +2053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2351,7 +2094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -2392,7 +2135,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -2433,7 +2176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -2474,7 +2217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -2515,7 +2258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -2556,7 +2299,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -2597,7 +2340,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
@@ -2638,7 +2381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -2679,7 +2422,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>36</v>
       </c>
@@ -2720,7 +2463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -2761,7 +2504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>32</v>
       </c>
@@ -2802,7 +2545,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>41</v>
       </c>
@@ -2843,7 +2586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -2884,7 +2627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>38</v>
       </c>
@@ -2925,7 +2668,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -2966,7 +2709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>39</v>
       </c>
@@ -3007,7 +2750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -3048,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>51</v>
       </c>
@@ -3090,21 +2833,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF390A7B-67B8-4437-B5B9-B9E7C450871A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J43" activeCellId="0" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -3160,7 +2912,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3210,7 +2962,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3260,7 +3012,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3310,7 +3062,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3360,7 +3112,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3410,7 +3162,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3460,7 +3212,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3510,7 +3262,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3560,7 +3312,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3610,7 +3362,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -3660,7 +3412,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3710,7 +3462,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -3760,7 +3512,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -3810,7 +3562,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -3860,7 +3612,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -3910,7 +3662,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -3960,7 +3712,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -4010,7 +3762,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -4060,7 +3812,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -4110,7 +3862,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -4160,7 +3912,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4210,7 +3962,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -4260,7 +4012,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -4310,7 +4062,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -4360,7 +4112,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -4410,7 +4162,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -4460,7 +4212,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -4510,7 +4262,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -4560,7 +4312,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -4610,7 +4362,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -4660,7 +4412,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -4710,7 +4462,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
@@ -4760,7 +4512,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -4810,7 +4562,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -4860,7 +4612,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -4910,7 +4662,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -4960,7 +4712,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -5010,7 +4762,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -5060,7 +4812,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -5110,7 +4862,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -5160,7 +4912,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
@@ -5210,7 +4962,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -5260,7 +5012,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
@@ -5310,7 +5062,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -5360,7 +5112,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -5410,7 +5162,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -5460,7 +5212,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
@@ -5510,7 +5262,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -5560,7 +5312,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -5610,7 +5362,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -5660,7 +5412,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>36</v>
       </c>
@@ -5710,7 +5462,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>15</v>
       </c>
@@ -5760,7 +5512,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>32</v>
       </c>
@@ -5810,7 +5562,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>41</v>
       </c>
@@ -5860,7 +5612,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -5910,7 +5662,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>38</v>
       </c>
@@ -5960,7 +5712,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
@@ -6010,7 +5762,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>39</v>
       </c>
@@ -6060,7 +5812,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -6110,7 +5862,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>51</v>
       </c>
@@ -6161,21 +5913,30 @@
       <c r="T61" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC11745E-595A-4BD7-ACC4-17F4B248D7EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X24" activeCellId="0" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6216,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -6257,7 +6018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -6298,7 +6059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -6339,7 +6100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -6380,7 +6141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -6421,7 +6182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -6462,7 +6223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -6503,7 +6264,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6544,7 +6305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -6585,7 +6346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -6626,7 +6387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -6667,7 +6428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -6708,7 +6469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6749,7 +6510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -6790,7 +6551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -6831,7 +6592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -6872,7 +6633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -6913,7 +6674,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -6954,7 +6715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -6995,7 +6756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -7036,7 +6797,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -7077,7 +6838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -7118,7 +6879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -7159,7 +6920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -7200,7 +6961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -7241,7 +7002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -7282,7 +7043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -7323,7 +7084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -7364,7 +7125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -7405,7 +7166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -7446,7 +7207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -7487,7 +7248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -7528,7 +7289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -7569,7 +7330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -7610,7 +7371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -7651,7 +7412,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -7692,7 +7453,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -7733,7 +7494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -7774,7 +7535,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -7815,7 +7576,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
@@ -7856,7 +7617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -7897,7 +7658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -7938,7 +7699,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -7979,7 +7740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -8020,7 +7781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -8061,7 +7822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -8102,7 +7863,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -8143,7 +7904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
@@ -8184,7 +7945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -8225,7 +7986,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>36</v>
       </c>
@@ -8266,7 +8027,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -8307,7 +8068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>32</v>
       </c>
@@ -8348,7 +8109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>41</v>
       </c>
@@ -8389,7 +8150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -8430,7 +8191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>38</v>
       </c>
@@ -8471,7 +8232,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -8512,7 +8273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>39</v>
       </c>
@@ -8553,7 +8314,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -8594,7 +8355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>51</v>
       </c>
@@ -8636,6 +8397,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>